--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>88123.51420772054</v>
+        <v>90124.02744063089</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20002932.62808473</v>
+        <v>20060381.09850434</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10509092.07651444</v>
+        <v>10565397.32237267</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5259187.929655443</v>
+        <v>5217059.171270858</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>409.0832221152896</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>409.08322211529</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -786,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>80.51100496435825</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
-        <v>140.4611363452985</v>
+        <v>140.4611363452983</v>
       </c>
       <c r="U3" t="n">
         <v>182.9205141195597</v>
@@ -826,13 +828,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>164.540418312084</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>90.63804810364262</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -896,16 +898,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>133.734341682088</v>
+        <v>173.6367412348444</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1026,7 +1028,7 @@
         <v>80.51100496435802</v>
       </c>
       <c r="T6" t="n">
-        <v>140.4611363452987</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U6" t="n">
         <v>182.9205141195597</v>
@@ -1057,16 +1059,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>139.4851730221162</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>34.79484432979863</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>124.0950237970986</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>131.9755589877488</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>34.79484432979879</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>164.540418312084</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>233.5555708013905</v>
+        <v>188.9909500970133</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1500,7 +1502,7 @@
         <v>80.51100496435802</v>
       </c>
       <c r="T12" t="n">
-        <v>140.4611363452987</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U12" t="n">
         <v>182.9205141195597</v>
@@ -1534,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.13022054491954</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>139.4851730221158</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1607,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>252.8252773014384</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>9.267875375282934</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>88.66266823451896</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>68.83205621563029</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1859,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>24.29679921818562</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>58.84470176214891</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>68.83205621562998</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>68.83205621563052</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>119.5893676834709</v>
       </c>
       <c r="C20" t="n">
-        <v>167.225823014918</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -2090,16 +2092,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2144,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2296,16 +2298,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>211.273021497943</v>
+        <v>171.2421961021948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>125.6566574884772</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>194.4665985013974</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2476,25 +2478,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>68.83205621562998</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>218.7757544134941</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2564,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>166.6548991966267</v>
+        <v>139.1976209650021</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2716,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>30.1878506247463</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>38.30510636578182</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2795,13 +2797,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>55.28419620635112</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>129.3180831409777</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2852,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>88.66266823451852</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>252.32165324814</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3032,19 +3034,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>119.5893676834712</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>244.6771405667884</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -3199,13 +3201,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>34.79484432979901</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>85.66293195531129</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>139.1239476400013</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>208.8438150461422</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3427,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>96.49859103808951</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>152.0351820703457</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3487,10 +3489,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3500,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>209.7280683124659</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3560,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>129.3180831409776</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4650271129547</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,22 +3714,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>148.1476088529637</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>106.3192265349075</v>
+        <v>130.1623136021049</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3913,7 +3915,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>34.79484432979901</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>167.8437626684462</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>212.1496567124882</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3989,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>366.5719984050743</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>27.98692145448388</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>366.5719984050743</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>366.5719984050743</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4059,19 +4061,19 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E45" t="n">
         <v>103.6549143897921</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>53.96935938374369</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T45" t="n">
         <v>140.4611363452985</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>175.5417102708946</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
@@ -4192,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>121.6384134437508</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>450.1273683348571</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="C2" t="n">
-        <v>450.1273683348571</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D2" t="n">
-        <v>450.1273683348571</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J2" t="n">
         <v>399.5154512777223</v>
@@ -4337,25 +4339,25 @@
         <v>399.5154512777223</v>
       </c>
       <c r="M2" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N2" t="n">
-        <v>1313.087264683184</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O2" t="n">
-        <v>1388.813716338606</v>
+        <v>815.1719019525201</v>
       </c>
       <c r="P2" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="T2" t="n">
         <v>1624.67405208597</v>
@@ -4364,16 +4366,16 @@
         <v>1624.67405208597</v>
       </c>
       <c r="V2" t="n">
-        <v>1267.18463721222</v>
+        <v>1267.184637212219</v>
       </c>
       <c r="W2" t="n">
-        <v>1267.18463721222</v>
+        <v>1267.184637212219</v>
       </c>
       <c r="X2" t="n">
-        <v>855.4646383799668</v>
+        <v>855.4646383799663</v>
       </c>
       <c r="Y2" t="n">
-        <v>450.1273683348571</v>
+        <v>450.1273683348567</v>
       </c>
     </row>
     <row r="3">
@@ -4389,49 +4391,49 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E3" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F3" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H3" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273858</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J3" t="n">
-        <v>316.0561247023297</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K3" t="n">
-        <v>316.0561247023297</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="L3" t="n">
-        <v>316.0561247023297</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="M3" t="n">
-        <v>316.0561247023297</v>
+        <v>765.3953884431486</v>
       </c>
       <c r="N3" t="n">
-        <v>393.2225928484409</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="O3" t="n">
         <v>850.0084995511718</v>
       </c>
       <c r="P3" t="n">
-        <v>1306.794406253903</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="S3" t="n">
         <v>1764.275375602591</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1020.32454672534</v>
+        <v>538.4095343022865</v>
       </c>
       <c r="C4" t="n">
-        <v>848.3519836042556</v>
+        <v>366.4369711812025</v>
       </c>
       <c r="D4" t="n">
-        <v>685.0352107310263</v>
+        <v>203.1201983079732</v>
       </c>
       <c r="E4" t="n">
-        <v>518.8270048838798</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F4" t="n">
-        <v>346.9652306584402</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G4" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K4" t="n">
-        <v>76.20565529896515</v>
+        <v>76.2056552989647</v>
       </c>
       <c r="L4" t="n">
-        <v>430.8949765933859</v>
+        <v>430.8949765933855</v>
       </c>
       <c r="M4" t="n">
-        <v>822.0807715636367</v>
+        <v>822.0807715636363</v>
       </c>
       <c r="N4" t="n">
-        <v>1199.572282439673</v>
+        <v>1199.572282439672</v>
       </c>
       <c r="O4" t="n">
-        <v>1555.000411119436</v>
+        <v>1555.000411119435</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="R4" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="S4" t="n">
-        <v>1679.397180301858</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="T4" t="n">
-        <v>1679.397180301858</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="U4" t="n">
-        <v>1679.397180301858</v>
+        <v>1754.046039098263</v>
       </c>
       <c r="V4" t="n">
-        <v>1679.397180301858</v>
+        <v>1472.334571706292</v>
       </c>
       <c r="W4" t="n">
-        <v>1679.397180301858</v>
+        <v>1197.482167878805</v>
       </c>
       <c r="X4" t="n">
-        <v>1436.833283747663</v>
+        <v>954.91827132461</v>
       </c>
       <c r="Y4" t="n">
-        <v>1210.490515437405</v>
+        <v>728.5755030143521</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1020.413988704697</v>
+        <v>212.3026401727908</v>
       </c>
       <c r="C5" t="n">
-        <v>885.3287950864262</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D5" t="n">
-        <v>462.0361742714265</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E5" t="n">
-        <v>462.0361742714265</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J5" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K5" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L5" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M5" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="N5" t="n">
-        <v>399.5154512777223</v>
+        <v>358.3859952497893</v>
       </c>
       <c r="O5" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525201</v>
       </c>
       <c r="P5" t="n">
         <v>1271.957808655251</v>
@@ -4589,28 +4591,28 @@
         <v>1728.043288159434</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="W5" t="n">
-        <v>1845.599623041337</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="X5" t="n">
-        <v>1845.599623041337</v>
+        <v>1037.488274509431</v>
       </c>
       <c r="Y5" t="n">
-        <v>1440.262352996227</v>
+        <v>632.1510044643209</v>
       </c>
     </row>
     <row r="6">
@@ -4620,55 +4622,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922819</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>486.5295800097866</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F6" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273858</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="J6" t="n">
-        <v>316.0561247023297</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K6" t="n">
-        <v>316.0561247023297</v>
+        <v>765.3953884431485</v>
       </c>
       <c r="L6" t="n">
-        <v>316.0561247023297</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="M6" t="n">
-        <v>393.2225928484409</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="N6" t="n">
         <v>850.0084995511718</v>
       </c>
       <c r="O6" t="n">
-        <v>1306.794406253903</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="P6" t="n">
-        <v>1763.580312956634</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="S6" t="n">
         <v>1764.275375602591</v>
@@ -4686,10 +4688,10 @@
         <v>1036.132727792389</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590522</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123446</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>208.8845555819107</v>
+        <v>876.5282782334939</v>
       </c>
       <c r="C7" t="n">
-        <v>36.91199246082674</v>
+        <v>704.5557151124099</v>
       </c>
       <c r="D7" t="n">
-        <v>36.91199246082674</v>
+        <v>541.2389422391806</v>
       </c>
       <c r="E7" t="n">
-        <v>36.91199246082674</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F7" t="n">
-        <v>36.91199246082674</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K7" t="n">
-        <v>76.20565529896515</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L7" t="n">
-        <v>430.8949765933859</v>
+        <v>391.6013137552475</v>
       </c>
       <c r="M7" t="n">
-        <v>822.0807715636367</v>
+        <v>782.7871087254983</v>
       </c>
       <c r="N7" t="n">
-        <v>1199.572282439673</v>
+        <v>1160.278619601534</v>
       </c>
       <c r="O7" t="n">
-        <v>1555.000411119436</v>
+        <v>1515.706748281297</v>
       </c>
       <c r="P7" t="n">
-        <v>1845.599623041337</v>
+        <v>1806.305960203198</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="S7" t="n">
-        <v>1704.705508877583</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="T7" t="n">
-        <v>1704.705508877583</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.521060377887</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="V7" t="n">
-        <v>1142.809592985916</v>
+        <v>1810.453315637499</v>
       </c>
       <c r="W7" t="n">
-        <v>867.9571891584293</v>
+        <v>1535.600911810012</v>
       </c>
       <c r="X7" t="n">
-        <v>625.3932926042344</v>
+        <v>1293.037015255818</v>
       </c>
       <c r="Y7" t="n">
-        <v>399.0505242939764</v>
+        <v>1066.69424694556</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1440.262352996227</v>
+        <v>887.1053432625264</v>
       </c>
       <c r="C8" t="n">
-        <v>1013.361623009527</v>
+        <v>460.2046132758265</v>
       </c>
       <c r="D8" t="n">
-        <v>1013.361623009527</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E8" t="n">
-        <v>587.3846831573848</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F8" t="n">
-        <v>162.260501346785</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J8" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K8" t="n">
+        <v>399.5154512777223</v>
+      </c>
+      <c r="L8" t="n">
         <v>856.3013579804531</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>1313.087264683184</v>
       </c>
-      <c r="M8" t="n">
-        <v>1728.043288159434</v>
-      </c>
       <c r="N8" t="n">
-        <v>1728.043288159434</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O8" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R8" t="n">
         <v>1845.599623041337</v>
@@ -4841,13 +4843,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>1712.290977599166</v>
       </c>
       <c r="X8" t="n">
-        <v>1845.599623041337</v>
+        <v>1712.290977599166</v>
       </c>
       <c r="Y8" t="n">
-        <v>1440.262352996227</v>
+        <v>1306.953707554057</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J9" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K9" t="n">
-        <v>765.3953884431487</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="L9" t="n">
-        <v>765.3953884431487</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="M9" t="n">
-        <v>765.3953884431487</v>
+        <v>393.2225928484411</v>
       </c>
       <c r="N9" t="n">
-        <v>1222.18129514588</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="O9" t="n">
         <v>1306.794406253903</v>
       </c>
       <c r="P9" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4911,7 +4913,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U9" t="n">
         <v>1437.627243819906</v>
@@ -4920,13 +4922,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1020.32454672534</v>
+        <v>911.6745856373311</v>
       </c>
       <c r="C10" t="n">
-        <v>848.3519836042556</v>
+        <v>739.7020225162471</v>
       </c>
       <c r="D10" t="n">
-        <v>685.0352107310263</v>
+        <v>576.3852496430178</v>
       </c>
       <c r="E10" t="n">
-        <v>518.8270048838798</v>
+        <v>410.1770437958713</v>
       </c>
       <c r="F10" t="n">
-        <v>346.9652306584402</v>
+        <v>238.3152695704318</v>
       </c>
       <c r="G10" t="n">
-        <v>180.7082609526723</v>
+        <v>72.05829986466389</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K10" t="n">
         <v>76.20565529896515</v>
@@ -4999,13 +5001,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W10" t="n">
-        <v>1679.397180301858</v>
+        <v>1570.74721921385</v>
       </c>
       <c r="X10" t="n">
-        <v>1436.833283747663</v>
+        <v>1328.183322659655</v>
       </c>
       <c r="Y10" t="n">
-        <v>1210.490515437405</v>
+        <v>1101.840554349397</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1100.45839366758</v>
+        <v>632.1510044643209</v>
       </c>
       <c r="C11" t="n">
-        <v>1100.45839366758</v>
+        <v>632.1510044643209</v>
       </c>
       <c r="D11" t="n">
-        <v>677.1657728525806</v>
+        <v>632.1510044643209</v>
       </c>
       <c r="E11" t="n">
-        <v>677.1657728525806</v>
+        <v>632.1510044643209</v>
       </c>
       <c r="F11" t="n">
         <v>441.2510548713781</v>
       </c>
       <c r="G11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J11" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K11" t="n">
+        <v>399.5154512777223</v>
+      </c>
+      <c r="L11" t="n">
         <v>856.3013579804531</v>
       </c>
-      <c r="L11" t="n">
-        <v>1313.087264683184</v>
-      </c>
       <c r="M11" t="n">
-        <v>1769.873171385915</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="N11" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="O11" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P11" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q11" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R11" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="S11" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="T11" t="n">
-        <v>1520.30675795911</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="U11" t="n">
-        <v>1520.30675795911</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="V11" t="n">
-        <v>1520.30675795911</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="W11" t="n">
-        <v>1520.30675795911</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="X11" t="n">
-        <v>1520.30675795911</v>
+        <v>1037.488274509431</v>
       </c>
       <c r="Y11" t="n">
-        <v>1520.30675795911</v>
+        <v>632.1510044643209</v>
       </c>
     </row>
     <row r="12">
@@ -5094,55 +5096,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922819</v>
       </c>
       <c r="C12" t="n">
-        <v>486.5295800097867</v>
+        <v>486.5295800097866</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E12" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F12" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H12" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I12" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="J12" t="n">
         <v>308.6094817404178</v>
       </c>
       <c r="K12" t="n">
-        <v>765.3953884431487</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="L12" t="n">
-        <v>1222.18129514588</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="M12" t="n">
-        <v>1678.967201848611</v>
+        <v>475.2419029331442</v>
       </c>
       <c r="N12" t="n">
-        <v>1845.599623041337</v>
+        <v>932.027809635875</v>
       </c>
       <c r="O12" t="n">
-        <v>1845.599623041337</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P12" t="n">
-        <v>1845.599623041337</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q12" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="R12" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="S12" t="n">
         <v>1764.275375602591</v>
@@ -5160,10 +5162,10 @@
         <v>1036.132727792389</v>
       </c>
       <c r="X12" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590522</v>
       </c>
       <c r="Y12" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123446</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>629.9631182453602</v>
+        <v>208.8845555819107</v>
       </c>
       <c r="C13" t="n">
-        <v>457.9905551242762</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D13" t="n">
-        <v>457.9905551242762</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E13" t="n">
-        <v>375.0307363920342</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F13" t="n">
-        <v>203.1689621665946</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J13" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K13" t="n">
-        <v>320.9309218908219</v>
+        <v>76.2056552989647</v>
       </c>
       <c r="L13" t="n">
-        <v>675.6202431852428</v>
+        <v>430.8949765933855</v>
       </c>
       <c r="M13" t="n">
-        <v>1066.806038155494</v>
+        <v>822.0807715636363</v>
       </c>
       <c r="N13" t="n">
-        <v>1444.297549031529</v>
+        <v>1199.572282439672</v>
       </c>
       <c r="O13" t="n">
-        <v>1799.725677711293</v>
+        <v>1555.000411119435</v>
       </c>
       <c r="P13" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="Q13" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="R13" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="S13" t="n">
-        <v>1845.599623041337</v>
+        <v>1845.599623041336</v>
       </c>
       <c r="T13" t="n">
-        <v>1845.599623041337</v>
+        <v>1704.705508877583</v>
       </c>
       <c r="U13" t="n">
-        <v>1845.599623041337</v>
+        <v>1424.521060377887</v>
       </c>
       <c r="V13" t="n">
-        <v>1563.888155649366</v>
+        <v>1142.809592985916</v>
       </c>
       <c r="W13" t="n">
-        <v>1289.035751821879</v>
+        <v>867.9571891584293</v>
       </c>
       <c r="X13" t="n">
-        <v>1046.471855267684</v>
+        <v>625.3932926042344</v>
       </c>
       <c r="Y13" t="n">
-        <v>820.1290869574259</v>
+        <v>399.0505242939764</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>498.7095937040555</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="C14" t="n">
-        <v>71.80886371735554</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="D14" t="n">
-        <v>71.80886371735554</v>
+        <v>1590.220555060086</v>
       </c>
       <c r="E14" t="n">
-        <v>71.80886371735554</v>
+        <v>1164.243615207943</v>
       </c>
       <c r="F14" t="n">
-        <v>71.80886371735554</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G14" t="n">
-        <v>71.80886371735554</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H14" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J14" t="n">
         <v>399.5154512777223</v>
@@ -5282,19 +5284,19 @@
         <v>399.5154512777223</v>
       </c>
       <c r="L14" t="n">
-        <v>399.5154512777223</v>
+        <v>814.4714747539723</v>
       </c>
       <c r="M14" t="n">
-        <v>399.5154512777223</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="N14" t="n">
-        <v>399.5154512777223</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="O14" t="n">
-        <v>856.3013579804531</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P14" t="n">
-        <v>1271.957808655251</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q14" t="n">
         <v>1728.043288159434</v>
@@ -5303,25 +5305,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S14" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T14" t="n">
-        <v>1520.30675795911</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U14" t="n">
-        <v>1261.951848555523</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V14" t="n">
-        <v>904.4624336817722</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W14" t="n">
-        <v>508.071083982119</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X14" t="n">
-        <v>498.7095937040555</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y14" t="n">
-        <v>498.7095937040555</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="15">
@@ -5337,37 +5339,37 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E15" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F15" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082672</v>
       </c>
       <c r="I15" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J15" t="n">
-        <v>316.0561247023297</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="K15" t="n">
-        <v>772.8420314050605</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="L15" t="n">
-        <v>1229.627938107791</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="M15" t="n">
-        <v>1686.413844810522</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="N15" t="n">
-        <v>1763.580312956633</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O15" t="n">
         <v>1763.580312956633</v>
@@ -5410,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>126.4702432027651</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="C16" t="n">
-        <v>126.4702432027651</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D16" t="n">
-        <v>126.4702432027651</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E16" t="n">
-        <v>126.4702432027651</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F16" t="n">
-        <v>126.4702432027651</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J16" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K16" t="n">
-        <v>76.20565529896515</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="L16" t="n">
-        <v>430.8949765933859</v>
+        <v>449.0926419794055</v>
       </c>
       <c r="M16" t="n">
-        <v>822.0807715636367</v>
+        <v>840.2784369496563</v>
       </c>
       <c r="N16" t="n">
-        <v>1199.572282439673</v>
+        <v>1217.769947825692</v>
       </c>
       <c r="O16" t="n">
-        <v>1555.000411119436</v>
+        <v>1573.198076505455</v>
       </c>
       <c r="P16" t="n">
         <v>1845.599623041337</v>
@@ -5461,25 +5463,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S16" t="n">
-        <v>1675.464575560472</v>
+        <v>1776.072293530599</v>
       </c>
       <c r="T16" t="n">
-        <v>1432.125227786372</v>
+        <v>1532.732945756499</v>
       </c>
       <c r="U16" t="n">
-        <v>1151.940779286676</v>
+        <v>1252.548497256803</v>
       </c>
       <c r="V16" t="n">
-        <v>870.229311894705</v>
+        <v>970.8370298648322</v>
       </c>
       <c r="W16" t="n">
-        <v>595.376908067218</v>
+        <v>695.9846260373453</v>
       </c>
       <c r="X16" t="n">
-        <v>352.8130115130231</v>
+        <v>453.4207294831504</v>
       </c>
       <c r="Y16" t="n">
-        <v>126.4702432027651</v>
+        <v>227.0779611728924</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>96.35108514986626</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="C17" t="n">
-        <v>96.35108514986626</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D17" t="n">
-        <v>96.35108514986626</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E17" t="n">
-        <v>96.35108514986626</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F17" t="n">
-        <v>96.35108514986626</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G17" t="n">
-        <v>96.35108514986626</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H17" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I17" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J17" t="n">
-        <v>399.5154512777223</v>
+        <v>357.6855680512415</v>
       </c>
       <c r="K17" t="n">
-        <v>856.3013579804531</v>
+        <v>814.4714747539723</v>
       </c>
       <c r="L17" t="n">
-        <v>1313.087264683184</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="M17" t="n">
-        <v>1769.873171385915</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="N17" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="O17" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P17" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q17" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R17" t="n">
         <v>1845.599623041337</v>
@@ -5546,19 +5548,19 @@
         <v>1520.30675795911</v>
       </c>
       <c r="U17" t="n">
-        <v>1261.951848555523</v>
+        <v>1261.951848555522</v>
       </c>
       <c r="V17" t="n">
-        <v>904.4624336817722</v>
+        <v>904.4624336817719</v>
       </c>
       <c r="W17" t="n">
-        <v>508.071083982119</v>
+        <v>508.0710839821188</v>
       </c>
       <c r="X17" t="n">
-        <v>96.35108514986626</v>
+        <v>96.35108514986604</v>
       </c>
       <c r="Y17" t="n">
-        <v>96.35108514986626</v>
+        <v>36.91199246082673</v>
       </c>
     </row>
     <row r="18">
@@ -5574,43 +5576,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D18" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E18" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F18" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G18" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H18" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I18" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J18" t="n">
-        <v>36.91199246082674</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K18" t="n">
-        <v>36.91199246082674</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="L18" t="n">
-        <v>493.6978991635576</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="M18" t="n">
-        <v>493.6978991635576</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="N18" t="n">
-        <v>493.6978991635576</v>
+        <v>1678.96720184861</v>
       </c>
       <c r="O18" t="n">
-        <v>850.0084995511716</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="P18" t="n">
-        <v>1306.794406253902</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q18" t="n">
         <v>1763.580312956633</v>
@@ -5647,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.91199246082674</v>
+        <v>106.4393219715641</v>
       </c>
       <c r="C19" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D19" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E19" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F19" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G19" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H19" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I19" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J19" t="n">
-        <v>36.91199246082674</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="K19" t="n">
-        <v>263.4395936666639</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L19" t="n">
-        <v>618.1289149610848</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M19" t="n">
-        <v>1009.314709931336</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N19" t="n">
-        <v>1386.806220807371</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O19" t="n">
-        <v>1742.234349487134</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P19" t="n">
         <v>1845.599623041337</v>
@@ -5698,25 +5700,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S19" t="n">
-        <v>1776.072293530599</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T19" t="n">
-        <v>1532.732945756499</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="U19" t="n">
-        <v>1252.548497256803</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V19" t="n">
-        <v>970.8370298648322</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W19" t="n">
-        <v>695.9846260373453</v>
+        <v>765.5119555480826</v>
       </c>
       <c r="X19" t="n">
-        <v>453.4207294831504</v>
+        <v>522.9480589938877</v>
       </c>
       <c r="Y19" t="n">
-        <v>227.0779611728924</v>
+        <v>296.6052906836297</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2224.911252462377</v>
+        <v>1313.082283114669</v>
       </c>
       <c r="C20" t="n">
-        <v>2055.996279720035</v>
+        <v>886.181553127969</v>
       </c>
       <c r="D20" t="n">
-        <v>1632.703658905035</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="E20" t="n">
-        <v>1206.726719052893</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F20" t="n">
-        <v>781.6025372422929</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G20" t="n">
-        <v>377.2634748317415</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H20" t="n">
-        <v>79.39509630577632</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K20" t="n">
-        <v>44.49822504924753</v>
+        <v>357.6855680512415</v>
       </c>
       <c r="L20" t="n">
-        <v>595.1637600336857</v>
+        <v>814.4714747539723</v>
       </c>
       <c r="M20" t="n">
-        <v>667.4947029893171</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="N20" t="n">
-        <v>1218.160237973755</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="O20" t="n">
-        <v>1218.160237973755</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P20" t="n">
-        <v>1768.825772958194</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q20" t="n">
-        <v>2224.911252462377</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X20" t="n">
-        <v>2224.911252462377</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="Y20" t="n">
-        <v>2224.911252462377</v>
+        <v>1433.879624209084</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>611.6217160807028</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C21" t="n">
-        <v>494.1158125982075</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D21" t="n">
-        <v>390.2758541134926</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E21" t="n">
-        <v>285.5739203864298</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F21" t="n">
-        <v>191.928090069334</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693795</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J21" t="n">
-        <v>44.49822504924753</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K21" t="n">
-        <v>44.49822504924753</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="L21" t="n">
-        <v>44.49822504924753</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="M21" t="n">
-        <v>595.1637600336857</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N21" t="n">
-        <v>1145.829295018124</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O21" t="n">
-        <v>1145.829295018124</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P21" t="n">
-        <v>1696.494830002562</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q21" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R21" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S21" t="n">
-        <v>1771.861608191012</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T21" t="n">
-        <v>1629.98167248869</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U21" t="n">
-        <v>1445.213476408327</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V21" t="n">
-        <v>1240.240337547593</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W21" t="n">
-        <v>1043.71896038081</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X21" t="n">
-        <v>880.2416141474731</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y21" t="n">
-        <v>740.5487255007655</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1127.679347573484</v>
+        <v>302.9375304263186</v>
       </c>
       <c r="C22" t="n">
-        <v>955.7067844524004</v>
+        <v>302.9375304263186</v>
       </c>
       <c r="D22" t="n">
-        <v>792.3900115791711</v>
+        <v>302.9375304263186</v>
       </c>
       <c r="E22" t="n">
-        <v>626.1818057320246</v>
+        <v>302.9375304263186</v>
       </c>
       <c r="F22" t="n">
-        <v>454.3200315065851</v>
+        <v>302.9375304263186</v>
       </c>
       <c r="G22" t="n">
-        <v>288.0630618008172</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="H22" t="n">
-        <v>144.2667933089716</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J22" t="n">
-        <v>101.9895532734055</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K22" t="n">
-        <v>328.5171544792427</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L22" t="n">
-        <v>683.2064757736634</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M22" t="n">
-        <v>1074.392270743914</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N22" t="n">
-        <v>1451.88378161995</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O22" t="n">
-        <v>1807.311910299713</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P22" t="n">
-        <v>2097.911122221614</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q22" t="n">
-        <v>2224.911252462376</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R22" t="n">
-        <v>2224.911252462376</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S22" t="n">
-        <v>2054.776204981511</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T22" t="n">
-        <v>1811.43685720741</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U22" t="n">
-        <v>1531.252408707715</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="V22" t="n">
-        <v>1531.252408707715</v>
+        <v>993.3257460627428</v>
       </c>
       <c r="W22" t="n">
-        <v>1531.252408707715</v>
+        <v>718.4733422352558</v>
       </c>
       <c r="X22" t="n">
-        <v>1531.252408707715</v>
+        <v>475.9094456810609</v>
       </c>
       <c r="Y22" t="n">
-        <v>1317.84531628555</v>
+        <v>302.9375304263186</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1616.760346052955</v>
+        <v>1014.031259917554</v>
       </c>
       <c r="C23" t="n">
-        <v>1616.760346052955</v>
+        <v>587.130529930854</v>
       </c>
       <c r="D23" t="n">
-        <v>1193.467725237955</v>
+        <v>163.8379091158542</v>
       </c>
       <c r="E23" t="n">
-        <v>767.4907853858125</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F23" t="n">
-        <v>342.3666035752127</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G23" t="n">
-        <v>342.3666035752127</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H23" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I23" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J23" t="n">
-        <v>407.101683866143</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K23" t="n">
-        <v>407.101683866143</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L23" t="n">
-        <v>407.101683866143</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M23" t="n">
-        <v>957.7672188505812</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N23" t="n">
-        <v>1508.432753835019</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="O23" t="n">
-        <v>1508.432753835019</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P23" t="n">
-        <v>1651.269438076291</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q23" t="n">
-        <v>2107.354917580474</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R23" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S23" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T23" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U23" t="n">
-        <v>2028.480344885207</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V23" t="n">
-        <v>2028.480344885207</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W23" t="n">
-        <v>2028.480344885207</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X23" t="n">
-        <v>1616.760346052955</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="Y23" t="n">
-        <v>1616.760346052955</v>
+        <v>1433.879624209084</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>611.6217160807028</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C24" t="n">
-        <v>494.1158125982075</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D24" t="n">
-        <v>390.2758541134926</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E24" t="n">
-        <v>285.5739203864298</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F24" t="n">
-        <v>191.928090069334</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G24" t="n">
-        <v>97.87431828693795</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H24" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082672</v>
       </c>
       <c r="I24" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082672</v>
       </c>
       <c r="J24" t="n">
-        <v>316.1957143288386</v>
+        <v>36.91199246082672</v>
       </c>
       <c r="K24" t="n">
-        <v>316.1957143288386</v>
+        <v>36.91199246082672</v>
       </c>
       <c r="L24" t="n">
-        <v>751.8547856608809</v>
+        <v>393.2225928484411</v>
       </c>
       <c r="M24" t="n">
-        <v>751.8547856608809</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="N24" t="n">
-        <v>751.8547856608809</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O24" t="n">
-        <v>1302.520320645319</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="P24" t="n">
-        <v>1853.185855629757</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q24" t="n">
-        <v>1853.185855629757</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R24" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S24" t="n">
-        <v>1771.861608191012</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T24" t="n">
-        <v>1629.98167248869</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U24" t="n">
-        <v>1445.213476408327</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V24" t="n">
-        <v>1240.240337547593</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W24" t="n">
-        <v>1043.71896038081</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X24" t="n">
-        <v>880.2416141474731</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y24" t="n">
-        <v>740.5487255007655</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1127.679347573484</v>
+        <v>106.4393219715641</v>
       </c>
       <c r="C25" t="n">
-        <v>955.7067844524004</v>
+        <v>106.4393219715641</v>
       </c>
       <c r="D25" t="n">
-        <v>792.3900115791711</v>
+        <v>106.4393219715641</v>
       </c>
       <c r="E25" t="n">
-        <v>626.1818057320246</v>
+        <v>106.4393219715641</v>
       </c>
       <c r="F25" t="n">
-        <v>454.3200315065851</v>
+        <v>106.4393219715641</v>
       </c>
       <c r="G25" t="n">
-        <v>288.0630618008172</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H25" t="n">
-        <v>144.2667933089716</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I25" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J25" t="n">
-        <v>101.9895532734055</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="K25" t="n">
-        <v>328.5171544792427</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L25" t="n">
-        <v>683.2064757736634</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M25" t="n">
-        <v>1074.392270743914</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N25" t="n">
-        <v>1451.88378161995</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O25" t="n">
-        <v>1807.311910299713</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P25" t="n">
-        <v>2097.911122221614</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q25" t="n">
-        <v>2224.911252462376</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R25" t="n">
-        <v>2177.872639149549</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S25" t="n">
-        <v>2007.737591668684</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T25" t="n">
-        <v>2007.737591668684</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="U25" t="n">
-        <v>2007.737591668684</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V25" t="n">
-        <v>2007.737591668684</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W25" t="n">
-        <v>1786.751981150003</v>
+        <v>765.5119555480826</v>
       </c>
       <c r="X25" t="n">
-        <v>1544.188084595808</v>
+        <v>522.9480589938877</v>
       </c>
       <c r="Y25" t="n">
-        <v>1317.84531628555</v>
+        <v>296.6052906836297</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>632.1510044643213</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="C26" t="n">
-        <v>205.2502744776214</v>
+        <v>1006.978894222384</v>
       </c>
       <c r="D26" t="n">
-        <v>205.2502744776214</v>
+        <v>1006.978894222384</v>
       </c>
       <c r="E26" t="n">
-        <v>205.2502744776214</v>
+        <v>1006.978894222384</v>
       </c>
       <c r="F26" t="n">
-        <v>205.2502744776214</v>
+        <v>581.8547124117842</v>
       </c>
       <c r="G26" t="n">
-        <v>205.2502744776214</v>
+        <v>177.5156500012329</v>
       </c>
       <c r="H26" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I26" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J26" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K26" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L26" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M26" t="n">
-        <v>950.4838058662885</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N26" t="n">
-        <v>1388.813716338606</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="O26" t="n">
-        <v>1845.599623041337</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="P26" t="n">
-        <v>1845.599623041337</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="Q26" t="n">
         <v>1845.599623041337</v>
@@ -6263,13 +6265,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W26" t="n">
-        <v>1449.208273341684</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X26" t="n">
-        <v>1037.488274509431</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="Y26" t="n">
-        <v>632.1510044643213</v>
+        <v>1433.879624209084</v>
       </c>
     </row>
     <row r="27">
@@ -6285,46 +6287,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D27" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E27" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F27" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G27" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H27" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I27" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J27" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K27" t="n">
-        <v>36.91199246082674</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L27" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M27" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N27" t="n">
-        <v>950.4838058662885</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O27" t="n">
-        <v>1407.269712569019</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="P27" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q27" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R27" t="n">
         <v>1845.599623041337</v>
@@ -6358,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>624.31116655892</v>
+        <v>740.7640869365607</v>
       </c>
       <c r="C28" t="n">
-        <v>452.338603437836</v>
+        <v>568.7915238154767</v>
       </c>
       <c r="D28" t="n">
-        <v>452.338603437836</v>
+        <v>405.4747509422474</v>
       </c>
       <c r="E28" t="n">
-        <v>452.338603437836</v>
+        <v>239.266545095101</v>
       </c>
       <c r="F28" t="n">
-        <v>280.4768292123964</v>
+        <v>67.40477086966138</v>
       </c>
       <c r="G28" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H28" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I28" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J28" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K28" t="n">
-        <v>76.20565529896515</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L28" t="n">
-        <v>430.8949765933859</v>
+        <v>391.6013137552475</v>
       </c>
       <c r="M28" t="n">
-        <v>822.0807715636367</v>
+        <v>782.7871087254983</v>
       </c>
       <c r="N28" t="n">
-        <v>1199.572282439673</v>
+        <v>1160.278619601534</v>
       </c>
       <c r="O28" t="n">
-        <v>1555.000411119436</v>
+        <v>1515.706748281297</v>
       </c>
       <c r="P28" t="n">
-        <v>1845.599623041337</v>
+        <v>1806.305960203198</v>
       </c>
       <c r="Q28" t="n">
         <v>1845.599623041337</v>
@@ -6409,25 +6411,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S28" t="n">
-        <v>1806.907596409234</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T28" t="n">
-        <v>1563.568248635134</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U28" t="n">
-        <v>1283.383800135438</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="V28" t="n">
-        <v>1283.383800135438</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="W28" t="n">
-        <v>1283.383800135438</v>
+        <v>1157.272823958884</v>
       </c>
       <c r="X28" t="n">
-        <v>1040.819903581244</v>
+        <v>1157.272823958884</v>
       </c>
       <c r="Y28" t="n">
-        <v>814.4771352709856</v>
+        <v>930.9300556486264</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>519.6553448781843</v>
+        <v>1020.413988704697</v>
       </c>
       <c r="C29" t="n">
-        <v>92.75461489148444</v>
+        <v>593.5132587179971</v>
       </c>
       <c r="D29" t="n">
-        <v>36.91199246082674</v>
+        <v>593.5132587179971</v>
       </c>
       <c r="E29" t="n">
-        <v>36.91199246082674</v>
+        <v>167.5363188658547</v>
       </c>
       <c r="F29" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G29" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H29" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I29" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J29" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K29" t="n">
-        <v>856.3013579804531</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L29" t="n">
-        <v>932.7282368344229</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M29" t="n">
-        <v>932.7282368344229</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N29" t="n">
-        <v>932.7282368344229</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O29" t="n">
-        <v>932.7282368344229</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P29" t="n">
-        <v>1389.514143537154</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q29" t="n">
         <v>1845.599623041337</v>
@@ -6488,25 +6490,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S29" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T29" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U29" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V29" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W29" t="n">
-        <v>1344.840979214824</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X29" t="n">
-        <v>1344.840979214824</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y29" t="n">
-        <v>939.5037091697144</v>
+        <v>1440.262352996227</v>
       </c>
     </row>
     <row r="30">
@@ -6516,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C30" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D30" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E30" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F30" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G30" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H30" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I30" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J30" t="n">
         <v>308.6094817404178</v>
       </c>
       <c r="K30" t="n">
-        <v>308.6094817404178</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="L30" t="n">
         <v>765.3953884431487</v>
       </c>
       <c r="M30" t="n">
-        <v>1222.18129514588</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="N30" t="n">
         <v>1222.18129514588</v>
       </c>
       <c r="O30" t="n">
-        <v>1306.794406253903</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="P30" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q30" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R30" t="n">
         <v>1845.599623041337</v>
@@ -6570,7 +6572,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T30" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U30" t="n">
         <v>1437.627243819906</v>
@@ -6579,13 +6581,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W30" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X30" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y30" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="31">
@@ -6595,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>375.0927614290572</v>
+        <v>126.4702432027646</v>
       </c>
       <c r="C31" t="n">
-        <v>203.1201983079732</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D31" t="n">
-        <v>203.1201983079732</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E31" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F31" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G31" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H31" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I31" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J31" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K31" t="n">
-        <v>76.20565529896515</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L31" t="n">
-        <v>430.8949765933859</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M31" t="n">
-        <v>822.0807715636367</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N31" t="n">
-        <v>1199.572282439673</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O31" t="n">
-        <v>1555.000411119436</v>
+        <v>1742.234349487134</v>
       </c>
       <c r="P31" t="n">
         <v>1845.599623041337</v>
@@ -6646,25 +6648,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S31" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T31" t="n">
-        <v>1845.599623041337</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U31" t="n">
-        <v>1590.729266225034</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V31" t="n">
-        <v>1309.017798833063</v>
+        <v>870.2293118947046</v>
       </c>
       <c r="W31" t="n">
-        <v>1034.165395005576</v>
+        <v>595.3769080672175</v>
       </c>
       <c r="X31" t="n">
-        <v>791.6014984513808</v>
+        <v>352.8130115130226</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.2587301411229</v>
+        <v>126.4702432027646</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1433.879624209084</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="C32" t="n">
-        <v>1006.978894222384</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="D32" t="n">
-        <v>583.6862734073845</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E32" t="n">
-        <v>157.7093335552421</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F32" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G32" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K32" t="n">
-        <v>357.6855680512415</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L32" t="n">
-        <v>814.4714747539724</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M32" t="n">
-        <v>814.4714747539724</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N32" t="n">
-        <v>1271.257381456703</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="O32" t="n">
-        <v>1728.043288159434</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="P32" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q32" t="n">
         <v>1728.043288159434</v>
@@ -6728,22 +6730,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T32" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U32" t="n">
-        <v>1845.599623041337</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V32" t="n">
-        <v>1845.599623041337</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="W32" t="n">
-        <v>1845.599623041337</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="X32" t="n">
-        <v>1433.879624209084</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="Y32" t="n">
-        <v>1433.879624209084</v>
+        <v>761.6811009734918</v>
       </c>
     </row>
     <row r="33">
@@ -6759,46 +6761,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D33" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E33" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F33" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G33" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H33" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I33" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J33" t="n">
-        <v>36.91199246082674</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K33" t="n">
-        <v>493.6978991635576</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="L33" t="n">
-        <v>493.6978991635576</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="M33" t="n">
-        <v>493.6978991635576</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="N33" t="n">
-        <v>932.0278096358747</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="O33" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="P33" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q33" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R33" t="n">
         <v>1845.599623041337</v>
@@ -6832,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>911.6745856373313</v>
+        <v>953.8361452792958</v>
       </c>
       <c r="C34" t="n">
-        <v>739.7020225162473</v>
+        <v>781.8635821582118</v>
       </c>
       <c r="D34" t="n">
-        <v>576.385249643018</v>
+        <v>618.5468092849825</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1770437958716</v>
+        <v>452.338603437836</v>
       </c>
       <c r="F34" t="n">
-        <v>238.315269570432</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="G34" t="n">
-        <v>72.05829986466412</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H34" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I34" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J34" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K34" t="n">
-        <v>36.91199246082674</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L34" t="n">
-        <v>391.6013137552475</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M34" t="n">
-        <v>782.7871087254983</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N34" t="n">
-        <v>1160.278619601534</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O34" t="n">
-        <v>1515.706748281297</v>
+        <v>1742.234349487134</v>
       </c>
       <c r="P34" t="n">
-        <v>1806.305960203198</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q34" t="n">
         <v>1845.599623041337</v>
@@ -6883,25 +6885,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S34" t="n">
-        <v>1845.599623041337</v>
+        <v>1759.071408945063</v>
       </c>
       <c r="T34" t="n">
-        <v>1845.599623041337</v>
+        <v>1515.732061170963</v>
       </c>
       <c r="U34" t="n">
-        <v>1845.599623041337</v>
+        <v>1235.547612671267</v>
       </c>
       <c r="V34" t="n">
-        <v>1845.599623041337</v>
+        <v>953.8361452792958</v>
       </c>
       <c r="W34" t="n">
-        <v>1570.74721921385</v>
+        <v>953.8361452792958</v>
       </c>
       <c r="X34" t="n">
-        <v>1328.183322659655</v>
+        <v>953.8361452792958</v>
       </c>
       <c r="Y34" t="n">
-        <v>1101.840554349397</v>
+        <v>953.8361452792958</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1028.542354163974</v>
+        <v>674.7660709789834</v>
       </c>
       <c r="C35" t="n">
-        <v>1028.542354163974</v>
+        <v>247.8653409922835</v>
       </c>
       <c r="D35" t="n">
-        <v>1028.542354163974</v>
+        <v>247.8653409922835</v>
       </c>
       <c r="E35" t="n">
-        <v>602.5654143118319</v>
+        <v>247.8653409922835</v>
       </c>
       <c r="F35" t="n">
-        <v>177.4412325012321</v>
+        <v>247.8653409922835</v>
       </c>
       <c r="G35" t="n">
-        <v>36.91199246082674</v>
+        <v>247.8653409922835</v>
       </c>
       <c r="H35" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I35" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J35" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K35" t="n">
         <v>493.6978991635576</v>
       </c>
       <c r="L35" t="n">
-        <v>950.4838058662885</v>
+        <v>814.4714747539723</v>
       </c>
       <c r="M35" t="n">
-        <v>1407.269712569019</v>
+        <v>814.4714747539723</v>
       </c>
       <c r="N35" t="n">
-        <v>1407.269712569019</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="O35" t="n">
         <v>1728.043288159434</v>
@@ -6962,25 +6964,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S35" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T35" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U35" t="n">
-        <v>1845.599623041337</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="V35" t="n">
-        <v>1845.599623041337</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="W35" t="n">
-        <v>1845.599623041337</v>
+        <v>1086.486069811236</v>
       </c>
       <c r="X35" t="n">
-        <v>1433.879624209084</v>
+        <v>674.7660709789834</v>
       </c>
       <c r="Y35" t="n">
-        <v>1028.542354163974</v>
+        <v>674.7660709789834</v>
       </c>
     </row>
     <row r="36">
@@ -6996,43 +6998,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D36" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E36" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F36" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G36" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H36" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I36" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J36" t="n">
-        <v>308.6094817404178</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K36" t="n">
-        <v>308.6094817404178</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L36" t="n">
-        <v>765.3953884431487</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M36" t="n">
-        <v>765.3953884431487</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="N36" t="n">
-        <v>932.0278096358747</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="O36" t="n">
+        <v>950.4838058662883</v>
+      </c>
+      <c r="P36" t="n">
         <v>1388.813716338606</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1845.599623041337</v>
       </c>
       <c r="Q36" t="n">
         <v>1845.599623041337</v>
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>369.3771680137411</v>
+        <v>782.5085350119248</v>
       </c>
       <c r="C37" t="n">
-        <v>369.3771680137411</v>
+        <v>782.5085350119248</v>
       </c>
       <c r="D37" t="n">
-        <v>369.3771680137411</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E37" t="n">
-        <v>203.1689621665946</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F37" t="n">
-        <v>203.1689621665946</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G37" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K37" t="n">
         <v>76.20565529896515</v>
@@ -7120,25 +7122,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S37" t="n">
-        <v>1692.02873206119</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T37" t="n">
-        <v>1448.68938428709</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U37" t="n">
-        <v>1168.504935787394</v>
+        <v>1565.415174541641</v>
       </c>
       <c r="V37" t="n">
-        <v>886.7934683954229</v>
+        <v>1283.70370714967</v>
       </c>
       <c r="W37" t="n">
-        <v>611.941064567936</v>
+        <v>1008.851303322183</v>
       </c>
       <c r="X37" t="n">
-        <v>369.3771680137411</v>
+        <v>1008.851303322183</v>
       </c>
       <c r="Y37" t="n">
-        <v>369.3771680137411</v>
+        <v>782.5085350119248</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>889.7896622996691</v>
+        <v>1076.390209335333</v>
       </c>
       <c r="C38" t="n">
-        <v>462.8889323129692</v>
+        <v>1076.390209335333</v>
       </c>
       <c r="D38" t="n">
-        <v>462.8889323129692</v>
+        <v>653.0975885203336</v>
       </c>
       <c r="E38" t="n">
-        <v>36.91199246082674</v>
+        <v>653.0975885203336</v>
       </c>
       <c r="F38" t="n">
-        <v>36.91199246082674</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J38" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K38" t="n">
-        <v>815.1719019525203</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L38" t="n">
-        <v>815.1719019525203</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M38" t="n">
-        <v>815.1719019525203</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="N38" t="n">
-        <v>815.1719019525203</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="O38" t="n">
-        <v>815.1719019525203</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="P38" t="n">
-        <v>1271.957808655251</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q38" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R38" t="n">
         <v>1845.599623041337</v>
@@ -7208,16 +7210,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V38" t="n">
-        <v>1845.599623041337</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="W38" t="n">
-        <v>1845.599623041337</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="X38" t="n">
-        <v>1714.975296636309</v>
+        <v>1076.390209335333</v>
       </c>
       <c r="Y38" t="n">
-        <v>1309.638026591199</v>
+        <v>1076.390209335333</v>
       </c>
     </row>
     <row r="39">
@@ -7233,46 +7235,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D39" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E39" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F39" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G39" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H39" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I39" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J39" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K39" t="n">
-        <v>308.6094817404178</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L39" t="n">
-        <v>765.3953884431487</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M39" t="n">
-        <v>1222.18129514588</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N39" t="n">
-        <v>1388.813716338606</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O39" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P39" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q39" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R39" t="n">
         <v>1845.599623041337</v>
@@ -7306,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.391941983953</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="C40" t="n">
-        <v>844.4193788628693</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="D40" t="n">
-        <v>681.10260598964</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="E40" t="n">
-        <v>514.8944001424935</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0326259170539</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G40" t="n">
-        <v>176.775656211286</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H40" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I40" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J40" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K40" t="n">
         <v>76.20565529896515</v>
@@ -7360,22 +7362,22 @@
         <v>1675.464575560472</v>
       </c>
       <c r="T40" t="n">
-        <v>1675.464575560472</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U40" t="n">
-        <v>1675.464575560472</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V40" t="n">
-        <v>1675.464575560472</v>
+        <v>870.2293118947046</v>
       </c>
       <c r="W40" t="n">
-        <v>1675.464575560472</v>
+        <v>595.3769080672175</v>
       </c>
       <c r="X40" t="n">
-        <v>1432.900679006277</v>
+        <v>352.8130115130226</v>
       </c>
       <c r="Y40" t="n">
-        <v>1206.557910696019</v>
+        <v>203.1689621665946</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1738.206464925269</v>
+        <v>888.9369042581264</v>
       </c>
       <c r="C41" t="n">
-        <v>1311.305734938569</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="D41" t="n">
-        <v>888.013114123569</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="E41" t="n">
         <v>462.0361742714265</v>
       </c>
       <c r="F41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J41" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K41" t="n">
-        <v>36.91199246082674</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L41" t="n">
-        <v>36.91199246082674</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M41" t="n">
-        <v>36.91199246082674</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="N41" t="n">
-        <v>475.942330131692</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="O41" t="n">
-        <v>932.7282368344229</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P41" t="n">
-        <v>1389.514143537154</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q41" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R41" t="n">
         <v>1845.599623041337</v>
@@ -7451,10 +7453,10 @@
         <v>1845.599623041337</v>
       </c>
       <c r="X41" t="n">
-        <v>1738.206464925269</v>
+        <v>1714.122538594766</v>
       </c>
       <c r="Y41" t="n">
-        <v>1738.206464925269</v>
+        <v>1308.785268549656</v>
       </c>
     </row>
     <row r="42">
@@ -7470,43 +7472,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D42" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E42" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F42" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G42" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H42" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I42" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J42" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K42" t="n">
-        <v>308.6094817404178</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L42" t="n">
-        <v>475.2419029331439</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M42" t="n">
-        <v>475.2419029331439</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N42" t="n">
-        <v>932.0278096358747</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O42" t="n">
         <v>1388.813716338606</v>
       </c>
       <c r="P42" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q42" t="n">
         <v>1845.599623041337</v>
@@ -7543,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>911.6745856373313</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="C43" t="n">
-        <v>739.7020225162473</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="D43" t="n">
-        <v>576.385249643018</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="E43" t="n">
-        <v>410.1770437958716</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F43" t="n">
-        <v>238.315269570432</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G43" t="n">
-        <v>72.05829986466412</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H43" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I43" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J43" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K43" t="n">
-        <v>76.20565529896515</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L43" t="n">
-        <v>430.8949765933859</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M43" t="n">
-        <v>822.0807715636367</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N43" t="n">
-        <v>1199.572282439673</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O43" t="n">
-        <v>1555.000411119436</v>
+        <v>1742.234349487134</v>
       </c>
       <c r="P43" t="n">
         <v>1845.599623041337</v>
@@ -7594,25 +7596,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S43" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T43" t="n">
-        <v>1845.599623041337</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U43" t="n">
-        <v>1845.599623041337</v>
+        <v>1262.58607357582</v>
       </c>
       <c r="V43" t="n">
-        <v>1845.599623041337</v>
+        <v>1262.58607357582</v>
       </c>
       <c r="W43" t="n">
-        <v>1570.74721921385</v>
+        <v>987.7336697483327</v>
       </c>
       <c r="X43" t="n">
-        <v>1328.183322659655</v>
+        <v>745.1697731941377</v>
       </c>
       <c r="Y43" t="n">
-        <v>1101.840554349397</v>
+        <v>518.8270048838798</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>697.4688842620826</v>
+        <v>251.2045749986936</v>
       </c>
       <c r="C44" t="n">
-        <v>697.4688842620826</v>
+        <v>251.2045749986936</v>
       </c>
       <c r="D44" t="n">
-        <v>697.4688842620826</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E44" t="n">
-        <v>697.4688842620826</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F44" t="n">
-        <v>697.4688842620826</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G44" t="n">
-        <v>327.1941383983711</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H44" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I44" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J44" t="n">
-        <v>391.9292186893015</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K44" t="n">
-        <v>391.9292186893015</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L44" t="n">
-        <v>391.9292186893015</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M44" t="n">
-        <v>622.9191018963475</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="N44" t="n">
-        <v>985.825380317371</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O44" t="n">
-        <v>985.825380317371</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P44" t="n">
-        <v>985.825380317371</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q44" t="n">
-        <v>1348.731658738395</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R44" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S44" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T44" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U44" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V44" t="n">
-        <v>1466.287993620297</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="W44" t="n">
-        <v>1438.018375989505</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="X44" t="n">
-        <v>1067.743630125794</v>
+        <v>1076.390209335333</v>
       </c>
       <c r="Y44" t="n">
-        <v>697.4688842620826</v>
+        <v>671.0529392902237</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>306.0481015099879</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C45" t="n">
-        <v>188.5421980274926</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D45" t="n">
-        <v>188.5421980274926</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E45" t="n">
-        <v>83.84026430042987</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F45" t="n">
-        <v>83.84026430042987</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G45" t="n">
-        <v>29.32575987240594</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H45" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I45" t="n">
-        <v>29.32575987240594</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J45" t="n">
-        <v>29.32575987240594</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K45" t="n">
-        <v>29.32575987240594</v>
+        <v>393.2225928484411</v>
       </c>
       <c r="L45" t="n">
-        <v>29.32575987240594</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="M45" t="n">
-        <v>295.5498482725233</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="N45" t="n">
-        <v>658.4561266935468</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="O45" t="n">
-        <v>1021.36240511457</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="P45" t="n">
-        <v>1384.268683535594</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q45" t="n">
-        <v>1384.268683535594</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R45" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S45" t="n">
-        <v>1466.287993620297</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T45" t="n">
-        <v>1324.408057917975</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U45" t="n">
-        <v>1139.639861837612</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V45" t="n">
-        <v>934.6667229768782</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W45" t="n">
-        <v>738.1453458100954</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X45" t="n">
-        <v>574.6679995767582</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y45" t="n">
-        <v>434.9751109300506</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>367.4445038036134</v>
+        <v>876.5282782334939</v>
       </c>
       <c r="C46" t="n">
-        <v>367.4445038036134</v>
+        <v>704.5557151124099</v>
       </c>
       <c r="D46" t="n">
-        <v>367.4445038036134</v>
+        <v>541.2389422391806</v>
       </c>
       <c r="E46" t="n">
-        <v>367.4445038036134</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F46" t="n">
-        <v>195.5827295781738</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G46" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H46" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I46" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J46" t="n">
-        <v>86.81708809656396</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K46" t="n">
-        <v>86.81708809656396</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L46" t="n">
-        <v>441.5064093909847</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M46" t="n">
-        <v>804.4126878120082</v>
+        <v>695.0806413228745</v>
       </c>
       <c r="N46" t="n">
-        <v>1110.859864940534</v>
+        <v>1072.57215219891</v>
       </c>
       <c r="O46" t="n">
-        <v>1466.287993620297</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P46" t="n">
-        <v>1466.287993620297</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q46" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R46" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S46" t="n">
-        <v>1296.152946139432</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T46" t="n">
-        <v>1052.813598365332</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U46" t="n">
-        <v>1052.813598365332</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="V46" t="n">
-        <v>771.1021309733608</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="W46" t="n">
-        <v>771.1021309733608</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="X46" t="n">
-        <v>771.1021309733608</v>
+        <v>1189.561331232177</v>
       </c>
       <c r="Y46" t="n">
-        <v>544.7593626631028</v>
+        <v>1066.69424694556</v>
       </c>
     </row>
   </sheetData>
@@ -7985,22 +7987,22 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>113.8823246645311</v>
+        <v>457.2459600376381</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
@@ -8064,19 +8066,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N3" t="n">
-        <v>99.28895563385606</v>
+        <v>106.8108172115449</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.1469440493127</v>
+        <v>484.1469440493126</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8137,7 +8139,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608369</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
@@ -8225,13 +8227,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>362.0008377727921</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P5" t="n">
-        <v>457.4303624918456</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8289,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936674</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>107.9828757122329</v>
       </c>
       <c r="M6" t="n">
-        <v>101.0427079326424</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>484.5717954825563</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493126</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8374,7 +8376,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K7" t="n">
-        <v>60.65522297608413</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8392,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>64.31013128815695</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,19 +8455,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M8" t="n">
-        <v>456.5787613602907</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>113.770988142953</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
@@ -8474,7 +8476,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,28 +8528,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>101.0427079326425</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O9" t="n">
-        <v>108.6396787202253</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8611,7 +8613,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8690,16 +8692,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>499.7119481929572</v>
+        <v>499.711948192957</v>
       </c>
       <c r="M11" t="n">
-        <v>498.831168659766</v>
+        <v>456.5787613602905</v>
       </c>
       <c r="N11" t="n">
-        <v>113.770988142953</v>
+        <v>498.6795285947801</v>
       </c>
       <c r="O11" t="n">
         <v>37.3909593560241</v>
@@ -8711,7 +8713,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,25 +8771,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>484.4966862726622</v>
+        <v>191.4123574746779</v>
       </c>
       <c r="N12" t="n">
-        <v>189.6586051758914</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825563</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493126</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8845,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K13" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608369</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
@@ -8863,7 +8865,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>68.71811917318276</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
         <v>24.61956276478495</v>
@@ -8930,22 +8932,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>457.4595408934816</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O14" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>457.4303624918456</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9003,22 +9005,22 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M15" t="n">
-        <v>484.4966862726622</v>
+        <v>375.4846162958659</v>
       </c>
       <c r="N15" t="n">
-        <v>99.28895563385595</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9082,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>60.65522297608413</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
@@ -9100,7 +9102,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>297.5338779669578</v>
       </c>
       <c r="Q16" t="n">
         <v>24.61956276478495</v>
@@ -9161,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>353.4336722031771</v>
       </c>
       <c r="K17" t="n">
         <v>497.1645065551435</v>
       </c>
       <c r="L17" t="n">
-        <v>499.7119481929572</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M17" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N17" t="n">
-        <v>113.770988142953</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>37.3909593560241</v>
@@ -9185,7 +9187,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9242,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L18" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O18" t="n">
-        <v>383.0815870834484</v>
+        <v>108.6396787202253</v>
       </c>
       <c r="P18" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9319,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>20.63675598390187</v>
+        <v>60.32732450727401</v>
       </c>
       <c r="K19" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
@@ -9337,7 +9339,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7901678844537</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
         <v>24.61956276478495</v>
@@ -9401,28 +9403,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>359.7783135124</v>
       </c>
       <c r="L20" t="n">
-        <v>594.539855548217</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M20" t="n">
-        <v>110.4928214404737</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N20" t="n">
-        <v>593.5074359500402</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O20" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9479,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>190.7148107956833</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>579.3245936279221</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N21" t="n">
-        <v>577.5708413291358</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>181.0208015487716</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9556,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K22" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
@@ -9577,7 +9579,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M23" t="n">
-        <v>593.6590760150259</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N23" t="n">
-        <v>593.5074359500402</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O23" t="n">
-        <v>37.3909593560241</v>
+        <v>361.4046720736148</v>
       </c>
       <c r="P23" t="n">
-        <v>181.8548408418185</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9714,31 +9716,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>462.5747547263935</v>
+        <v>382.4247840754562</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O24" t="n">
-        <v>579.3997028378163</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P24" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9793,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>60.32732450727401</v>
       </c>
       <c r="K25" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
@@ -9814,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N26" t="n">
-        <v>480.0371081600191</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O26" t="n">
-        <v>498.7908651163583</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P26" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>112.616039913105</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9948,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L27" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O27" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>464.5283265304016</v>
+        <v>99.7167686251434</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10033,7 +10035,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K28" t="n">
-        <v>60.65522297608413</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L28" t="n">
         <v>380.1908016072373</v>
@@ -10051,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.61956276478495</v>
+        <v>64.31013128815719</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>115.5109099618853</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N29" t="n">
-        <v>37.27962283444602</v>
+        <v>480.0371081600193</v>
       </c>
       <c r="O29" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P29" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10191,28 +10193,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L30" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O30" t="n">
-        <v>108.6396787202253</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>190.0864181671784</v>
       </c>
       <c r="Q30" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10270,7 +10272,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K31" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
@@ -10285,7 +10287,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>126.7901678844535</v>
       </c>
       <c r="Q31" t="n">
         <v>24.61956276478495</v>
@@ -10349,25 +10351,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>359.7783135124</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>499.7119481929572</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M32" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>498.7908651163583</v>
+        <v>362.1121742943702</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10425,31 +10427,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>108.5645695103312</v>
       </c>
       <c r="N33" t="n">
-        <v>464.1005135391146</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10507,7 +10509,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K34" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
@@ -10522,10 +10524,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>126.7901678844535</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.31013128815742</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10589,16 +10591,16 @@
         <v>497.1645065551435</v>
       </c>
       <c r="L35" t="n">
-        <v>499.7119481929572</v>
+        <v>362.3257551502136</v>
       </c>
       <c r="M35" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O35" t="n">
-        <v>361.4046720736148</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P35" t="n">
         <v>37.5753618102313</v>
@@ -10662,28 +10664,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>189.6586051758912</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O36" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P36" t="n">
-        <v>483.1707469651629</v>
+        <v>464.528326530402</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10744,7 +10746,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K37" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
@@ -10823,28 +10825,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>455.6196014764236</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N38" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>114.5898268852863</v>
       </c>
       <c r="P38" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L39" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>189.6586051758912</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O39" t="n">
-        <v>484.5717954825564</v>
+        <v>101.1178171425369</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10981,7 +10983,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K40" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>456.5787613602905</v>
       </c>
       <c r="N41" t="n">
-        <v>480.7446103807745</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,31 +11135,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L42" t="n">
-        <v>190.8306636765791</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>183.8904958969894</v>
       </c>
       <c r="N42" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q42" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11218,7 +11220,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K43" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
@@ -11233,7 +11235,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>126.7901678844535</v>
       </c>
       <c r="Q43" t="n">
         <v>24.61956276478495</v>
@@ -11303,22 +11305,22 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>270.7543772499833</v>
+        <v>113.9226282079389</v>
       </c>
       <c r="N44" t="n">
-        <v>403.8516212395203</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q44" t="n">
-        <v>402.6966730096723</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,28 +11372,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>100.3451612536479</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M45" t="n">
-        <v>292.0100011185071</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N45" t="n">
-        <v>387.915026618616</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O45" t="n">
-        <v>389.7438881272965</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>388.342839609903</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -11455,25 +11457,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>389.1474382965601</v>
+        <v>42.23240770727544</v>
       </c>
       <c r="N46" t="n">
-        <v>330.2915041357274</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>6.566658533325153</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
@@ -22553,7 +22555,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>12.63394833833098</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
@@ -22714,13 +22716,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -22753,19 +22755,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>3.893278693972519</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>186.7445559110561</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22784,16 +22786,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>288.8973810047448</v>
+        <v>248.9949814519884</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -22844,10 +22846,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22945,16 +22947,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -22990,16 +22992,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>28.94852398394025</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>244.0995083882528</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23018,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>276.2006479893472</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -23081,7 +23083,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>260.4518772149078</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
@@ -23194,7 +23196,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>107.5634614771284</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -23239,7 +23241,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>107.5634614771281</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>187.3173691911033</v>
+        <v>231.8819898954804</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
@@ -23318,13 +23320,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,13 +23424,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>82.41590324375544</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -23467,10 +23469,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>101.4207812742432</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,25 +23497,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>166.2344173054113</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>398.3349234686473</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
@@ -23665,7 +23667,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>75.93173177419122</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -23701,7 +23703,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>99.6016407904262</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23747,10 +23749,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>270.5928955225199</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>342.4391955825096</v>
       </c>
     </row>
     <row r="18">
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>101.4207812742432</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -23938,7 +23940,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>99.60164079042598</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>296.0605129651439</v>
       </c>
       <c r="C20" t="n">
-        <v>255.4058996719149</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23978,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24032,7 +24034,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>12.8063191292124</v>
+        <v>52.83714452496054</v>
       </c>
     </row>
     <row r="23">
@@ -24203,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>296.0605129651437</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
         <v>34.5479025439635</v>
@@ -24260,7 +24262,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>61.30476180815438</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>95.76234379308021</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>53.328125375718</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24452,13 +24454,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>128.2347955440788</v>
+        <v>155.6920737757034</v>
       </c>
       <c r="I26" t="n">
         <v>34.5479025439635</v>
@@ -24503,13 +24505,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>134.4065493839639</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,22 +24651,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>130.1285906402747</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24683,13 +24685,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>363.7754984004986</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>291.5548568515161</v>
       </c>
       <c r="G29" t="n">
         <v>400.2956717864458</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
         <v>218.7163152458132</v>
@@ -24740,7 +24742,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>81.59016925535462</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -24886,13 +24888,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>25.06095076655879</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24920,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>301.2835723090225</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>34.5479025439635</v>
@@ -24968,19 +24970,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>147.7502956358682</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>107.5634614771281</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,25 +25125,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>82.7707650507452</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25154,22 +25156,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1717241464445</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>86.04587969456333</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -25202,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25315,19 +25317,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>65.18501410640748</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25360,10 +25362,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>16.39851493571081</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>211.1448716800278</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
@@ -25448,16 +25450,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>278.2847157029526</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>3.893278693972462</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25600,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>75.93173177419163</v>
       </c>
     </row>
     <row r="41">
@@ -25625,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>301.2835723090227</v>
+        <v>277.4404852418253</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>107.5634614771281</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25834,13 +25836,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>109.5388413462526</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>206.9100378943615</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -25877,10 +25879,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>33.72367338137155</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25922,16 +25924,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>364.4405147481727</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>41.03080043885592</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>34.71189893958427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25947,19 +25949,19 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>39.14387468082834</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>12.72259875405044</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>102.4409271834046</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>451180.8101582488</v>
+        <v>451180.8101582486</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>508388.6281842873</v>
+        <v>451180.8101582486</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>508388.6281842872</v>
+        <v>451180.8101582486</v>
       </c>
     </row>
     <row r="10">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>370559.753866727</v>
+        <v>451180.8101582486</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>82692.15333900347</v>
+      </c>
+      <c r="C2" t="n">
+        <v>82692.15333900347</v>
+      </c>
+      <c r="D2" t="n">
+        <v>82692.15333900347</v>
+      </c>
+      <c r="E2" t="n">
+        <v>82692.15333900347</v>
+      </c>
+      <c r="F2" t="n">
+        <v>82692.15333900347</v>
+      </c>
+      <c r="G2" t="n">
         <v>82692.1533390035</v>
       </c>
-      <c r="C2" t="n">
-        <v>82692.15333900352</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="H2" t="n">
         <v>82692.15333900346</v>
       </c>
-      <c r="E2" t="n">
+      <c r="I2" t="n">
+        <v>82692.15333900346</v>
+      </c>
+      <c r="J2" t="n">
+        <v>82692.15333900346</v>
+      </c>
+      <c r="K2" t="n">
+        <v>82692.1533390035</v>
+      </c>
+      <c r="L2" t="n">
         <v>82692.15333900349</v>
-      </c>
-      <c r="F2" t="n">
-        <v>82692.1533390035</v>
-      </c>
-      <c r="G2" t="n">
-        <v>82692.15333900349</v>
-      </c>
-      <c r="H2" t="n">
-        <v>93176.70532920717</v>
-      </c>
-      <c r="I2" t="n">
-        <v>93176.70532920718</v>
-      </c>
-      <c r="J2" t="n">
-        <v>82692.15333900347</v>
-      </c>
-      <c r="K2" t="n">
-        <v>82692.15333900346</v>
-      </c>
-      <c r="L2" t="n">
-        <v>82692.15333900347</v>
       </c>
       <c r="M2" t="n">
         <v>82692.15333900349</v>
       </c>
       <c r="N2" t="n">
-        <v>82692.15333900349</v>
+        <v>82692.15333900346</v>
       </c>
       <c r="O2" t="n">
-        <v>82692.1533390035</v>
+        <v>82692.15333900346</v>
       </c>
       <c r="P2" t="n">
-        <v>67916.62640300213</v>
+        <v>82692.15333900345</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>154625.7206181204</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>25585.42285561533</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>95911.36395069725</v>
+        <v>120722.5169427569</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8050.273149146124</v>
+        <v>8050.273149146122</v>
       </c>
       <c r="C4" t="n">
-        <v>8050.273149146124</v>
+        <v>8050.273149146123</v>
       </c>
       <c r="D4" t="n">
-        <v>8050.273149146123</v>
+        <v>8050.273149146122</v>
       </c>
       <c r="E4" t="n">
         <v>8050.273149146123</v>
       </c>
       <c r="F4" t="n">
+        <v>8050.273149146123</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8050.273149146123</v>
+      </c>
+      <c r="H4" t="n">
         <v>8050.273149146124</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
+        <v>8050.273149146122</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8050.273149146123</v>
+      </c>
+      <c r="K4" t="n">
         <v>8050.273149146124</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9081.116486988823</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9081.116486988822</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8050.273149146124</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8050.273149146122</v>
       </c>
       <c r="L4" t="n">
         <v>8050.273149146124</v>
       </c>
       <c r="M4" t="n">
+        <v>8050.273149146123</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8050.273149146123</v>
+      </c>
+      <c r="O4" t="n">
         <v>8050.273149146124</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>8050.273149146124</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8050.273149146123</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6597.540259908343</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>61680.71427022831</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>61680.71427022831</v>
       </c>
       <c r="D5" t="n">
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="F5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="G5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742812</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="I5" t="n">
-        <v>33818.65103742812</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="J5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="K5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="L5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="M5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="N5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="O5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="P5" t="n">
-        <v>22287.57750302851</v>
+        <v>28053.11427022831</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-141664.5546984914</v>
       </c>
       <c r="C6" t="n">
-        <v>12961.16591962907</v>
+        <v>12961.16591962905</v>
       </c>
       <c r="D6" t="n">
-        <v>12961.16591962903</v>
+        <v>12961.16591962904</v>
       </c>
       <c r="E6" t="n">
+        <v>46588.76591962905</v>
+      </c>
+      <c r="F6" t="n">
+        <v>46588.76591962905</v>
+      </c>
+      <c r="G6" t="n">
+        <v>46588.76591962908</v>
+      </c>
+      <c r="H6" t="n">
+        <v>46588.76591962902</v>
+      </c>
+      <c r="I6" t="n">
+        <v>46588.76591962903</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-74133.75102312783</v>
+      </c>
+      <c r="K6" t="n">
+        <v>46588.76591962908</v>
+      </c>
+      <c r="L6" t="n">
+        <v>46588.76591962905</v>
+      </c>
+      <c r="M6" t="n">
         <v>46588.76591962906</v>
       </c>
-      <c r="F6" t="n">
-        <v>46588.76591962907</v>
-      </c>
-      <c r="G6" t="n">
-        <v>46588.76591962904</v>
-      </c>
-      <c r="H6" t="n">
-        <v>24691.5149491749</v>
-      </c>
-      <c r="I6" t="n">
-        <v>50276.93780479024</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-49322.59803106822</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
         <v>46588.76591962903</v>
       </c>
-      <c r="L6" t="n">
-        <v>46588.76591962904</v>
-      </c>
-      <c r="M6" t="n">
-        <v>46588.76591962904</v>
-      </c>
-      <c r="N6" t="n">
-        <v>46588.76591962904</v>
-      </c>
       <c r="O6" t="n">
-        <v>46588.76591962907</v>
+        <v>46588.76591962902</v>
       </c>
       <c r="P6" t="n">
-        <v>39031.50864006527</v>
+        <v>46588.76591962902</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="H4" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="I4" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P4" t="n">
-        <v>366.5719984050743</v>
+        <v>461.3999057603341</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>366.5719984050743</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34705,22 +34707,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>76.49136530850697</v>
+        <v>419.855000681614</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
@@ -34784,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N3" t="n">
-        <v>77.94592742031439</v>
+        <v>85.46778899800323</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>39.69056852337214</v>
+        <v>39.69056852337169</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34933,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34945,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>324.7212149383461</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P5" t="n">
-        <v>419.8550006816143</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35009,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>85.46778899800334</v>
       </c>
       <c r="M6" t="n">
-        <v>77.94592742031439</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>39.69056852337214</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35112,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>39.69056852337201</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35175,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M8" t="n">
-        <v>419.1474984608589</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35194,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,28 +35248,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>77.94592742031456</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O9" t="n">
-        <v>85.46778899800312</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,16 +35412,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M11" t="n">
-        <v>461.3999057603342</v>
+        <v>419.1474984608586</v>
       </c>
       <c r="N11" t="n">
-        <v>76.49136530850697</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35431,7 +35433,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>461.3999057603342</v>
+        <v>168.31557696235</v>
       </c>
       <c r="N12" t="n">
-        <v>168.3155769623498</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337169</v>
       </c>
       <c r="L13" t="n">
         <v>358.2720417115361</v>
@@ -35583,7 +35585,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>46.33731851519627</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35650,22 +35652,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>419.1474984608586</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O14" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>419.8550006816143</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35723,22 +35725,22 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M15" t="n">
-        <v>461.3999057603342</v>
+        <v>352.3878357835379</v>
       </c>
       <c r="N15" t="n">
-        <v>77.94592742031428</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>39.69056852337214</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>358.2720417115361</v>
@@ -35820,7 +35822,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>293.5345574968697</v>
+        <v>275.1530773089713</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>324.0137127175906</v>
       </c>
       <c r="K17" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L17" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M17" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N17" t="n">
-        <v>76.49136530850697</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O18" t="n">
-        <v>359.9096973612262</v>
+        <v>85.46778899800312</v>
       </c>
       <c r="P18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>82.84778796434657</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="K19" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
@@ -36057,7 +36059,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>104.4093672264672</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.0137127175906</v>
       </c>
       <c r="L20" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M20" t="n">
-        <v>73.0615585410419</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N20" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>168.31557696235</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N21" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.2737632597931</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L22" t="n">
         <v>358.2720417115361</v>
@@ -36297,7 +36299,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M23" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N23" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>324.0137127175907</v>
       </c>
       <c r="P23" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>440.0596680121639</v>
+        <v>359.9096973612267</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O24" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P24" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>58.07204871127072</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="K25" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>358.2720417115361</v>
@@ -36534,7 +36536,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N26" t="n">
-        <v>442.7574853255731</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O26" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L27" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O27" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>442.7574853255729</v>
+        <v>77.94592742031473</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>39.69056852337214</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>358.2720417115361</v>
@@ -36771,7 +36773,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>39.69056852337224</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>77.19886752926243</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P29" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L30" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O30" t="n">
-        <v>85.46778899800312</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>168.3155769623498</v>
       </c>
       <c r="Q30" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L31" t="n">
         <v>358.2720417115361</v>
@@ -37005,7 +37007,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P31" t="n">
-        <v>293.5345574968697</v>
+        <v>104.409367226467</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37069,25 +37071,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>461.3999057603342</v>
+        <v>324.7212149383461</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>85.46778899800323</v>
       </c>
       <c r="N33" t="n">
-        <v>442.7574853255729</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L34" t="n">
         <v>358.2720417115361</v>
@@ -37242,10 +37244,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P34" t="n">
-        <v>293.5345574968697</v>
+        <v>104.409367226467</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.69056852337247</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,19 +37308,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L35" t="n">
-        <v>461.3999057603342</v>
+        <v>324.0137127175906</v>
       </c>
       <c r="M35" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O35" t="n">
-        <v>324.0137127175907</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>168.3155769623496</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O36" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P36" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,28 +37545,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>419.8550006816142</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>77.1988675292622</v>
       </c>
       <c r="P38" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L39" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>168.3155769623496</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O39" t="n">
-        <v>461.3999057603342</v>
+        <v>77.94592742031473</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>419.1474984608586</v>
       </c>
       <c r="N41" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L42" t="n">
-        <v>168.3155769623496</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>160.7937153846614</v>
       </c>
       <c r="N42" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q42" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L43" t="n">
         <v>358.2720417115361</v>
@@ -37953,7 +37955,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P43" t="n">
-        <v>293.5345574968697</v>
+        <v>104.409367226467</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38023,22 +38025,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>233.3231143505515</v>
+        <v>76.49136530850708</v>
       </c>
       <c r="N44" t="n">
-        <v>366.5719984050743</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q44" t="n">
-        <v>366.5719984050743</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>77.94592742031456</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M45" t="n">
-        <v>268.9132206061791</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5719984050743</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O45" t="n">
-        <v>366.5719984050743</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>366.5719984050743</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,25 +38177,25 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
-        <v>366.5719984050743</v>
+        <v>19.65696781578962</v>
       </c>
       <c r="N46" t="n">
-        <v>309.542603160127</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O46" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
